--- a/Game/Game/wave/wave5.xlsx
+++ b/Game/Game/wave/wave5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\Game\Game\wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16162F0C-D548-4F36-B79B-8BC84612AB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4410956-D7B5-4B7F-ADF2-25F33F4FBC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F1678D-3523-45D6-B27D-F1B77AE3261F}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11235" xr2:uid="{31F1678D-3523-45D6-B27D-F1B77AE3261F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91816E13-0B82-4265-A926-6E61CF43A7FB}">
   <dimension ref="A1:BQ227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12" s="4">
         <v>2</v>
